--- a/配置文件/map.xlsx
+++ b/配置文件/map.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,43 +37,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>粮草</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木材</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矿藏</t>
+    <t xml:space="preserve">int  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地块名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地块资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿山</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>山脉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山贼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贼兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要塞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>军营</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -446,179 +446,111 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <f>$B2*100-1+COUNTIF($B$2:$B2,$B2)</f>
-        <v>100</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="str">
-        <f>"map_"&amp;A2</f>
-        <v>map_100</v>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <f>$B3*100-1+COUNTIF($B$2:$B3,$B3)</f>
-        <v>101</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D12" si="0">"map_"&amp;A3</f>
-        <v>map_101</v>
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
-        <f>$B4*100-1+COUNTIF($B$2:$B4,$B4)</f>
-        <v>102</v>
+        <f>$B4*100-1+COUNTIF($B$4:$B4,$B4)</f>
+        <v>100</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="str">
+        <f>"map_"&amp;A4</f>
+        <v>map_100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <f>$B5*100-1+COUNTIF($B$4:$B5,$B5)</f>
+        <v>101</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" ref="D5:D14" si="0">"map_"&amp;A5</f>
+        <v>map_101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <f>$B6*100-1+COUNTIF($B$4:$B6,$B6)</f>
+        <v>102</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="str">
         <f t="shared" si="0"/>
         <v>map_102</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <f>$B5*100-1+COUNTIF($B$2:$B5,$B5)</f>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <f>$B7*100-1+COUNTIF($B$4:$B7,$B7)</f>
         <v>103</v>
       </c>
-      <c r="B5">
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="str">
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="str">
         <f t="shared" si="0"/>
         <v>map_103</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <f>$B6*100-1+COUNTIF($B$2:$B6,$B6)</f>
-        <v>104</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>map_104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <f>$B7*100-1+COUNTIF($B$2:$B7,$B7)</f>
-        <v>105</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>map_105</v>
-      </c>
-    </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8">
-        <f>$B8*100-1+COUNTIF($B$2:$B8,$B8)</f>
+        <f>$B8*100-1+COUNTIF($B$4:$B8,$B8)</f>
         <v>200</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
         <v>map_200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <f>$B9*100-1+COUNTIF($B$2:$B9,$B9)</f>
-        <v>201</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>map_201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <f>$B10*100-1+COUNTIF($B$2:$B10,$B10)</f>
-        <v>300</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>map_300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <f>$B11*100-1+COUNTIF($B$2:$B11,$B11)</f>
-        <v>301</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>map_301</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <f>$B12*100-1+COUNTIF($B$2:$B12,$B12)</f>
-        <v>302</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>map_302</v>
       </c>
     </row>
   </sheetData>

--- a/配置文件/map.xlsx
+++ b/配置文件/map.xlsx
@@ -423,7 +423,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -485,8 +485,8 @@
         <v>4</v>
       </c>
       <c r="D4" t="str">
-        <f>"map_"&amp;A4</f>
-        <v>map_100</v>
+        <f>"map/map_"&amp;A4</f>
+        <v>map/map_100</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -501,8 +501,8 @@
         <v>11</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" ref="D5:D14" si="0">"map_"&amp;A5</f>
-        <v>map_101</v>
+        <f t="shared" ref="D5:D8" si="0">"map/map_"&amp;A5</f>
+        <v>map/map_101</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -518,7 +518,7 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>map_102</v>
+        <v>map/map_102</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -534,7 +534,7 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>map_103</v>
+        <v>map/map_103</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -550,7 +550,7 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>map_200</v>
+        <v>map/map_200</v>
       </c>
     </row>
   </sheetData>

--- a/配置文件/map.xlsx
+++ b/配置文件/map.xlsx
@@ -7,15 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="map_element" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="map" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,48 +32,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">int  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地块名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地块资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山脉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>空地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">int  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地块名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地块资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矿山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山脉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>map/map_1000</t>
   </si>
 </sst>
 </file>
@@ -420,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -447,108 +453,119 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
-        <f>$B4*100-1+COUNTIF($B$4:$B4,$B4)</f>
-        <v>100</v>
+        <f>$B4*100-1+COUNTIF($B4:$B$5,$B4)</f>
+        <v>1000</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="str">
-        <f>"map/map_"&amp;A4</f>
-        <v>map/map_100</v>
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
-        <f>$B5*100-1+COUNTIF($B$4:$B5,$B5)</f>
-        <v>101</v>
+        <f>$B5*100-1+COUNTIF($B$5:$B5,$B5)</f>
+        <v>100</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" ref="D5:D8" si="0">"map/map_"&amp;A5</f>
-        <v>map/map_101</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
-        <f>$B6*100-1+COUNTIF($B$4:$B6,$B6)</f>
-        <v>102</v>
+        <f>$B6*100-1+COUNTIF($B$5:$B6,$B6)</f>
+        <v>101</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" t="str">
+        <f t="shared" ref="D6:D9" si="0">"map/map_"&amp;A6</f>
+        <v>map/map_101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <f>$B7*100-1+COUNTIF($B$5:$B7,$B7)</f>
+        <v>102</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="str">
         <f t="shared" si="0"/>
         <v>map/map_102</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <f>$B7*100-1+COUNTIF($B$4:$B7,$B7)</f>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <f>$B8*100-1+COUNTIF($B$5:$B8,$B8)</f>
         <v>103</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="str">
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="str">
         <f t="shared" si="0"/>
         <v>map/map_103</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <f>$B8*100-1+COUNTIF($B$4:$B8,$B8)</f>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <f>$B9*100-1+COUNTIF($B$5:$B9,$B9)</f>
         <v>200</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="str">
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="str">
         <f t="shared" si="0"/>
         <v>map/map_200</v>
       </c>
@@ -557,17 +574,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/配置文件/map.xlsx
+++ b/配置文件/map.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,18 @@
   </si>
   <si>
     <t>map/map_1000</t>
+  </si>
+  <si>
+    <t>村庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -426,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -437,7 +449,7 @@
     <col min="4" max="4" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,8 +462,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -464,8 +479,11 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -478,8 +496,11 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <f>$B4*100-1+COUNTIF($B4:$B$5,$B4)</f>
         <v>1000</v>
@@ -493,8 +514,11 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <f>$B5*100-1+COUNTIF($B$5:$B5,$B5)</f>
         <v>100</v>
@@ -505,8 +529,11 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <f>$B6*100-1+COUNTIF($B$5:$B6,$B6)</f>
         <v>101</v>
@@ -518,11 +545,14 @@
         <v>10</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" ref="D6:D9" si="0">"map/map_"&amp;A6</f>
+        <f t="shared" ref="D6:D11" si="0">"map/map_"&amp;A6</f>
         <v>map/map_101</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <f>$B7*100-1+COUNTIF($B$5:$B7,$B7)</f>
         <v>102</v>
@@ -537,8 +567,11 @@
         <f t="shared" si="0"/>
         <v>map/map_102</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <f>$B8*100-1+COUNTIF($B$5:$B8,$B8)</f>
         <v>103</v>
@@ -553,8 +586,11 @@
         <f t="shared" si="0"/>
         <v>map/map_103</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <f>$B9*100-1+COUNTIF($B$5:$B9,$B9)</f>
         <v>200</v>
@@ -569,9 +605,49 @@
         <f t="shared" si="0"/>
         <v>map/map_200</v>
       </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>2101</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>map/map_2101</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>2102</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>map/map_2102</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/配置文件/map.xlsx
+++ b/配置文件/map.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,22 @@
   <si>
     <t>weight</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map/rain_hill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map/rain_hill2</t>
+  </si>
+  <si>
+    <t>map/rain_hill3</t>
+  </si>
+  <si>
+    <t>map/rain_hill4</t>
+  </si>
+  <si>
+    <t>map/rain_hill5</t>
   </si>
 </sst>
 </file>
@@ -438,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E13" sqref="A9:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -545,11 +561,11 @@
         <v>10</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" ref="D6:D11" si="0">"map/map_"&amp;A6</f>
+        <f t="shared" ref="D6:D15" si="0">"map/map_"&amp;A6</f>
         <v>map/map_101</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -592,8 +608,8 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
-        <f>$B9*100-1+COUNTIF($B$5:$B9,$B9)</f>
-        <v>200</v>
+        <f>$B9*100+COUNTIF($B$5:$B9,$B9)</f>
+        <v>201</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -601,47 +617,118 @@
       <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>map/map_200</v>
+      <c r="D9" t="s">
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
+        <f>$B10*100+COUNTIF($B$5:$B10,$B10)</f>
+        <v>202</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <f>$B11*100+COUNTIF($B$5:$B11,$B11)</f>
+        <v>203</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <f>$B12*100+COUNTIF($B$5:$B12,$B12)</f>
+        <v>204</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <f>$B13*100+COUNTIF($B$5:$B13,$B13)</f>
+        <v>205</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14">
         <v>2101</v>
       </c>
-      <c r="B10">
+      <c r="B14">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C14" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D14" t="str">
         <f t="shared" si="0"/>
         <v>map/map_2101</v>
       </c>
-      <c r="E10">
+      <c r="E14">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15">
         <v>2102</v>
       </c>
-      <c r="B11">
+      <c r="B15">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D15" t="str">
         <f t="shared" si="0"/>
         <v>map/map_2102</v>
       </c>
-      <c r="E11">
+      <c r="E15">
         <v>10</v>
       </c>
     </row>
